--- a/algorithmFromGodLeftFighting/src/file_1635402764384.xlsx
+++ b/algorithmFromGodLeftFighting/src/file_1635402764384.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zt\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC08B3-9D07-4E42-B7FB-A1ED96197736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29800" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,31 +37,54 @@
     <t>Q1：请做一个自我介绍</t>
   </si>
   <si>
+    <t>A1：我叫臧涛，我是2017年毕业于江苏海洋大学计算机科学与技术专业，目前是就职于霸王茶姬项目组，主要做的是供应链项目，包括国内和海外两部分，我是2020年来到的上海，之前有在花旗项目组和沃尔玛Fast项目组工作过，主要是做的后端这一块，差不多有7年多工作经验，擅长spring全家桶和一些redis，rabbitmq这些中间件。</t>
+  </si>
+  <si>
     <t>Q2：final、finally、finalize的区别？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2：final可以用来修饰方法和成员变量和类，被final修饰的类不可被集成，被final修饰的方法不可以被重写，被final修饰的成员变量不变。 finally是 try catch 捕获到异常后可以跟一段finally代码，finally里面的代码会被最终执行。但是也有一些特殊情况，比如，try catch里面的语句return了，会省略return的内容，直接走finally里面的语句
+finalize不记得了，好像是跟引用相关</t>
   </si>
   <si>
     <t>Q3：CPU飙升怎么处理？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3：看看是否是数据积累，这时候可以创建多个服务来缓解压力</t>
   </si>
   <si>
     <t>Q4：工作中做过哪些JVM调优</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4：设置最大堆内存和最小堆内存的值</t>
   </si>
   <si>
     <t>Q5：Lock接口对比synchronized它有什么优势？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5：Lock是java.util.curreent包下的方法，可以手动设置什么时候加锁解锁，synchronized是jvm层面的锁，一般是锁局部代码块，1.8之后有过性能优化，新增了锁升级，但是使用起来不太方便</t>
   </si>
   <si>
     <t>Q6：Java中如何停止一个线程？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6：run结束</t>
   </si>
   <si>
     <t>Q7：请概述volatile？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A7：volatile是用来修饰成员变量的，保证可见性和有序性，不保证原子性，被volatile修饰的变量，其他现成读取它的值可以直接去主内存读取</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q8</t>
     </r>
     <r>
@@ -73,7 +103,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>哈希表不</t>
@@ -88,10 +117,19 @@
       </rPr>
       <t>适合做数据库索引？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A8：索引的话要尽可能保证多的数据和尽可能少的io，哈希表的话查找数组上的数据查还效率虽然高，但是哈希碰撞很高，全部在链表上，就得遍历链表查询，时间复杂度高，不利于做数据库索引</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q9</t>
     </r>
     <r>
@@ -104,10 +142,19 @@
       </rPr>
       <t>：什么是三星索引？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A9：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q10</t>
     </r>
     <r>
@@ -126,7 +173,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>InnoDB</t>
@@ -141,10 +187,19 @@
       </rPr>
       <t>引擎的三大特性是什么？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A10：支持事务ACID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q11</t>
     </r>
     <r>
@@ -163,7 +218,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>redolog</t>
@@ -184,7 +238,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>binlog</t>
@@ -199,10 +252,19 @@
       </rPr>
       <t>的区别是什么？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A11：redolog是用来回滚日志的，譬如数据库奔溃，可以用redolog来回滚，binlog是主从复制的log，从数据库读取binlog，然后存放进relaylog，从数据库再读取relaylog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q12</t>
     </r>
     <r>
@@ -221,15 +283,108 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>HyperLogLog？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A12：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Redis中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Key</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是使用全局哈希表组织存储，底层实现是数组，那么Redis是如何解决数组扩容带来的阻塞问题？</t>
+    </r>
+  </si>
+  <si>
+    <t>A13：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q14</t>
     </r>
     <r>
@@ -248,7 +403,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Redis6.0</t>
@@ -263,10 +417,19 @@
       </rPr>
       <t>之前为什么一直不使用多线程？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A14：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q15</t>
     </r>
     <r>
@@ -285,7 +448,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Redis6.0</t>
@@ -300,10 +462,19 @@
       </rPr>
       <t>为什么要引入多线程呢？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A15：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q</t>
     </r>
     <r>
@@ -312,7 +483,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>16</t>
@@ -333,7 +503,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Redis </t>
@@ -348,10 +517,19 @@
       </rPr>
       <t>要缓存系统时间戳</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A16：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q17</t>
     </r>
     <r>
@@ -370,7 +548,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>kafka</t>
@@ -385,10 +562,19 @@
       </rPr>
       <t>为什么那么快？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A17：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q</t>
     </r>
     <r>
@@ -397,7 +583,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>18</t>
@@ -418,7 +603,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>RocketMQ</t>
@@ -439,7 +623,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>kafka</t>
@@ -454,26 +637,94 @@
       </rPr>
       <t>的区别是啥？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A18：</t>
   </si>
   <si>
     <t>Q19：如何解决消息的重复消费？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A19：每次消费完就删除，或者，消费完做一个标识，带一个版本号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：为什么</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kafka</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不支持读写分离？</t>
+    </r>
+  </si>
+  <si>
+    <t>A20：</t>
   </si>
   <si>
     <t>Q21：简述Nacos的Distro协议</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A21：</t>
   </si>
   <si>
     <t>Q22：Sentinel 采用限流算法有哪些？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A22：</t>
+  </si>
+  <si>
+    <t>Q23：Zuul和Gateway的区别？</t>
+  </si>
+  <si>
+    <t>A23：</t>
   </si>
   <si>
     <t>Q24：简单介绍一下秒杀流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A24：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q25：Nacos</t>
     </r>
     <r>
@@ -486,10 +737,19 @@
       </rPr>
       <t>的动态感知原理是什么？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <t>A25：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q26：Getaway</t>
     </r>
     <r>
@@ -502,104 +762,33 @@
       </rPr>
       <t>的过滤器执行顺序怎么判定？</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A26：</t>
   </si>
   <si>
     <t>Q27：Fegin远程调用的核心原理能描述一下吗？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A27：被问过，我当时答的是 用的restfultemplate，不太会这个</t>
+  </si>
+  <si>
+    <t>Q28：列举MyBatis框架中涉及到的设计模式有哪些？</t>
+  </si>
+  <si>
+    <t>A28：</t>
   </si>
   <si>
     <t>Q29：介绍下Spring中是如何解决循环依赖问题的？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q28：列举MyBatis框架中涉及到的设计模式有哪些？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q23：Zuul和Gateway的区别？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Q20</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：为什么</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Kafka</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不支持读写分离？</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A29：使用三级缓存，一级缓存是存放单例的bean，二级缓存是存放早期的bean，三级缓存是存放单例bean的工厂</t>
   </si>
   <si>
     <t>Q30：SpringBoot中为什么需要通过DeferredImportSelector来延迟处理？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q32：你还有什么想问的吗？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9：</t>
-  </si>
-  <si>
-    <t>A13：</t>
-  </si>
-  <si>
-    <t>A15：</t>
-  </si>
-  <si>
-    <t>A16：</t>
-  </si>
-  <si>
-    <t>A17：</t>
-  </si>
-  <si>
-    <t>A20：</t>
-  </si>
-  <si>
-    <t>A21：</t>
-  </si>
-  <si>
-    <t>A22：</t>
-  </si>
-  <si>
-    <t>A23：</t>
-  </si>
-  <si>
-    <t>A24：</t>
-  </si>
-  <si>
-    <t>A25：</t>
-  </si>
-  <si>
-    <t>A26：</t>
+  </si>
+  <si>
+    <t>A30：不清楚</t>
   </si>
   <si>
     <t>Q31：算法题：爬楼梯
@@ -619,102 +808,6 @@
 1.  1 阶 + 1 阶 + 1 阶
 2.  1 阶 + 2 阶
 3.  2 阶 + 1 阶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Q13</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Redis中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Key</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Value</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是使用全局哈希表组织存储，底层实现是数组，那么Redis是如何解决数组扩容带来的阻塞问题？</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1：我叫臧涛，我是2017年毕业于江苏海洋大学计算机科学与技术专业，目前是就职于霸王茶姬项目组，主要做的是供应链项目，包括国内和海外两部分，我是2020年来到的上海，之前有在花旗项目组和沃尔玛Fast项目组工作过，主要是做的后端这一块，差不多有7年多工作经验，擅长spring全家桶和一些redis，rabbitmq这些中间件。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2：final可以用来修饰方法和成员变量和类，被final修饰的类不可被集成，被final修饰的方法不可以被重写，被final修饰的成员变量不变。 finally是 try catch 捕获到异常后可以跟一段finally代码，finally里面的代码会被最终执行。finalize不记得了，好像是跟引用相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4：设置最大堆内存和最小堆内存的值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A27：被问过，我当时答的是 用的restfultemplate，不太会这个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A31： public int f (int n) {  
@@ -723,74 +816,25 @@
 }
 return f(n) + f(n - 1)
  }面试中也会把它装进hashmap中，剪支</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q32：你还有什么想问的吗？</t>
   </si>
   <si>
     <t>A32：我一般都是问，请问贵公司目前用的技术栈有哪些，项目主要是做哪些模块？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A30：不清楚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A28：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A29：使用三级缓存，一级缓存是存放单例的bean，二级缓存是存放早期的bean，三级缓存是存放单例bean的工厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A19：每次消费完就删除，或者，消费完做一个标识，带一个版本号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3：看看是否是数据积累，这时候可以创建多个服务来缓解压力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5：Lock是java.util.curreent包下的方法，可以手动设置什么时候加锁解锁，synchronized是jvm层面的锁，一般是锁局部代码块，1.8之后有过性能优化，新增了锁升级，但是使用起来不太方便</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7：volatile是用来修饰成员变量的，保证可见性和有序性，不保证原子性，被volatile修饰的变量，其他现成读取它的值可以直接去主内存读取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8：索引的话要尽可能保证多的数据和尽可能少的io，哈希表的话查找数组上的数据查还效率虽然高，但是哈希碰撞很高，全部在链表上，就得遍历链表查询，时间复杂度高，不利于做数据库索引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10：支持事务ACID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A11：redolog是用来回滚日志的，譬如数据库奔溃，可以用redolog来回滚，binlog是主从复制的log，从数据库读取binlog，然后存放进relaylog，从数据库再读取relaylog</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A12：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A14：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A18：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,16 +863,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -836,7 +873,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -844,19 +880,348 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -864,9 +1229,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -883,30 +1490,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1193,19 +1844,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="66.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="35.5" defaultRowHeight="66.95" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="41.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.75" style="2" customWidth="1"/>
@@ -1213,302 +1864,308 @@
     <col min="4" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" ht="55.15" customHeight="1" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="31" ht="55.15" customHeight="1" spans="1:2">
+      <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="32" ht="236.45" customHeight="1" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="33" ht="84.6" customHeight="1" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="55.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="55.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="236.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>